--- a/Test Plan Organisation.xlsx
+++ b/Test Plan Organisation.xlsx
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,10 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,254 +522,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="148.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+    </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>28</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>29</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>31</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>32</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>34</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>35</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <v>36</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>37</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <v>38</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>39</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <v>40</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <v>41</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <v>42</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <v>43</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <v>44</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <v>45</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <v>46</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <v>47</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Test Plan Organisation.xlsx
+++ b/Test Plan Organisation.xlsx
@@ -183,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF25FF25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,6 +217,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,10 +226,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF25FF25"/>
       <color rgb="FFFF1D1D"/>
       <color rgb="FF7986FF"/>
       <color rgb="FF1A00DE"/>
-      <color rgb="FF25FF25"/>
     </mruColors>
   </colors>
   <extLst>
@@ -520,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C56"/>
+  <dimension ref="A4:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +539,8 @@
     <col min="3" max="3" width="148.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -540,7 +548,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -548,7 +557,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -556,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -564,7 +574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -572,7 +582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -580,10 +590,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -591,7 +602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -599,10 +610,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -610,7 +622,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -618,7 +631,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="6">
         <v>11</v>
       </c>
@@ -626,7 +640,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>12</v>
       </c>
@@ -634,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>13</v>
       </c>
@@ -642,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>14</v>
       </c>
@@ -650,10 +665,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>15</v>
       </c>
@@ -661,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>16</v>
       </c>
@@ -669,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>17</v>
       </c>
@@ -677,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>18</v>
       </c>
@@ -685,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>19</v>
       </c>
@@ -693,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>20</v>
       </c>
@@ -701,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>21</v>
       </c>
@@ -709,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>22</v>
       </c>
@@ -717,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>24</v>
       </c>
@@ -725,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>23</v>
       </c>
@@ -733,10 +748,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>25</v>
       </c>

--- a/Test Plan Organisation.xlsx
+++ b/Test Plan Organisation.xlsx
@@ -46,9 +46,6 @@
     <t>Omitting details while trying to submit a Booking displays an informative error message.</t>
   </si>
   <si>
-    <t>The filter on the Students section the window works correctly.</t>
-  </si>
-  <si>
     <t>Pressing Delete on the EditBooking window causes the Server to delete the booking from the internal model and distribute it to all clients.</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Clicking the “Customise System” option on the taskbar context menu with the Admin Control window open brings it to the front.</t>
+  </si>
+  <si>
+    <t>The filter on the Students section of the Edit Booking window works correctly.</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A4:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,6 +685,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="6">
         <v>17</v>
       </c>
@@ -693,6 +694,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="6">
         <v>18</v>
       </c>
@@ -709,6 +711,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="6">
         <v>20</v>
       </c>
@@ -717,11 +720,12 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
       <c r="B27" s="6">
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -764,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -775,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -783,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -791,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -799,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -807,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -815,7 +819,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -823,7 +827,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -831,7 +835,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -839,7 +843,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -847,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -855,7 +859,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -863,7 +867,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -871,7 +875,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -879,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -887,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -895,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -903,7 +907,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -911,7 +915,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -922,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -930,7 +934,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -938,7 +942,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
